--- a/ff_pub.xlsx
+++ b/ff_pub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6e1db52c29e3048/Programming/R/FF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6430F50-1F39-4228-9846-DA6B8C116F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F6430F50-1F39-4228-9846-DA6B8C116F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D9FD66C-CA32-4DCE-AA59-F4D0C1F57B4F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="564">
   <si>
     <t>Saving Private Ryan (1998)</t>
   </si>
@@ -1715,7 +1715,40 @@
     <t>https://www.imdb.com/title/tt0065375/</t>
   </si>
   <si>
-    <t>avg. rating</t>
+    <t>The Guns of Navarone (1961)</t>
+  </si>
+  <si>
+    <t>Nazi dummies</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/FriendlyFirePodcast/comments/fydlko/ep_118_the_guns_of_navarone_1961/</t>
+  </si>
+  <si>
+    <t>https://www.justwatch.com/us/movie/the-guns-of-navarone</t>
+  </si>
+  <si>
+    <t>A British team is sent to cross occupied Greek territory and destroy the massive German gun emplacement that commands a key sea channel.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0054953/</t>
+  </si>
+  <si>
+    <t>Black Hawk Down (2001)</t>
+  </si>
+  <si>
+    <t>Humvees</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/FriendlyFirePodcast/comments/g2xdpj/ep_119_black_hawk_down_2001/</t>
+  </si>
+  <si>
+    <t>https://www.justwatch.com/us/movie/black-hawk-down</t>
+  </si>
+  <si>
+    <t>160 elite U.S. soldiers drop into Somalia to capture two top lieutenants of a renegade warlord and find themselves in a desperate battle with a large force of heavily-armed Somalis.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0265086/?ref_=fn_al_tt_1</t>
   </si>
 </sst>
 </file>
@@ -1757,12 +1790,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2079,16 +2113,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329281F0-8AC7-414B-A8FA-FE10E41254C5}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L15"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -2132,7 +2166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2143,7 +2177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2154,7 +2188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2165,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2176,7 +2210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2187,7 +2221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2198,7 +2232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2209,7 +2243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2220,7 +2254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2231,7 +2265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2242,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2253,7 +2287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2264,7 +2298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2275,7 +2309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2298,7 +2332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2316,7 +2350,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +2368,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2352,7 +2386,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2370,7 +2404,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2391,7 +2425,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2408,7 +2442,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2432,7 +2466,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2450,7 +2484,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2468,7 +2502,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2486,7 +2520,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2504,7 +2538,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2528,7 +2562,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="288" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2567,7 +2601,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2605,7 +2639,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2644,7 +2678,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2683,7 +2717,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2722,7 +2756,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -2761,7 +2795,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2800,7 +2834,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -2839,7 +2873,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -2878,7 +2912,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2917,7 +2951,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2956,7 +2990,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -2989,7 +3023,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -3028,7 +3062,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -3067,7 +3101,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -3106,7 +3140,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -3145,7 +3179,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -3184,7 +3218,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -3223,7 +3257,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -3262,7 +3296,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -3301,7 +3335,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -3337,7 +3371,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -3373,7 +3407,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -3412,7 +3446,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -3451,7 +3485,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -3490,7 +3524,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -3529,7 +3563,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>192</v>
       </c>
@@ -3568,7 +3602,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>197</v>
       </c>
@@ -3606,7 +3640,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -3642,7 +3676,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -3678,7 +3712,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3717,7 +3751,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>216</v>
       </c>
@@ -3756,7 +3790,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -3795,7 +3829,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -3834,7 +3868,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>231</v>
       </c>
@@ -3873,7 +3907,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>236</v>
       </c>
@@ -3912,7 +3946,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>241</v>
       </c>
@@ -3951,7 +3985,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -3990,7 +4024,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>251</v>
       </c>
@@ -4029,7 +4063,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -4068,7 +4102,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>260</v>
       </c>
@@ -4107,7 +4141,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>265</v>
       </c>
@@ -4146,7 +4180,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>270</v>
       </c>
@@ -4179,7 +4213,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>274</v>
       </c>
@@ -4218,7 +4252,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>279</v>
       </c>
@@ -4257,7 +4291,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>284</v>
       </c>
@@ -4296,7 +4330,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>289</v>
       </c>
@@ -4335,7 +4369,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -4374,7 +4408,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -4413,7 +4447,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>304</v>
       </c>
@@ -4452,7 +4486,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>309</v>
       </c>
@@ -4491,7 +4525,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>315</v>
       </c>
@@ -4530,7 +4564,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>320</v>
       </c>
@@ -4563,7 +4597,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>324</v>
       </c>
@@ -4596,7 +4630,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>328</v>
       </c>
@@ -4635,7 +4669,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>333</v>
       </c>
@@ -4674,7 +4708,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -4710,7 +4744,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>342</v>
       </c>
@@ -4746,7 +4780,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>346</v>
       </c>
@@ -4782,7 +4816,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>350</v>
       </c>
@@ -4818,7 +4852,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
@@ -4853,7 +4887,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>358</v>
       </c>
@@ -4880,7 +4914,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>360</v>
       </c>
@@ -4916,7 +4950,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>364</v>
       </c>
@@ -4955,7 +4989,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>369</v>
       </c>
@@ -4994,7 +5028,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>374</v>
       </c>
@@ -5024,7 +5058,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>377</v>
       </c>
@@ -5063,7 +5097,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>382</v>
       </c>
@@ -5093,7 +5127,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>385</v>
       </c>
@@ -5123,7 +5157,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>388</v>
       </c>
@@ -5162,7 +5196,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>393</v>
       </c>
@@ -5192,7 +5226,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>396</v>
       </c>
@@ -5231,7 +5265,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>401</v>
       </c>
@@ -5270,7 +5304,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -5309,7 +5343,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>411</v>
       </c>
@@ -5348,7 +5382,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -5387,7 +5421,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>421</v>
       </c>
@@ -5426,7 +5460,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>426</v>
       </c>
@@ -5465,7 +5499,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>431</v>
       </c>
@@ -5504,7 +5538,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>436</v>
       </c>
@@ -5543,7 +5577,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>441</v>
       </c>
@@ -5586,7 +5620,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>447</v>
       </c>
@@ -5616,7 +5650,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>450</v>
       </c>
@@ -5646,7 +5680,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>453</v>
       </c>
@@ -5676,7 +5710,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>456</v>
       </c>
@@ -5706,7 +5740,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>459</v>
       </c>
@@ -5736,7 +5770,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>462</v>
       </c>
@@ -5775,7 +5809,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>467</v>
       </c>
@@ -5805,7 +5839,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>470</v>
       </c>
@@ -5835,7 +5869,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>473</v>
       </c>
@@ -5868,7 +5902,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>477</v>
       </c>
@@ -5910,7 +5944,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>483</v>
       </c>
@@ -5949,7 +5983,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>488</v>
       </c>
@@ -5979,7 +6013,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>491</v>
       </c>
@@ -6018,7 +6052,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>496</v>
       </c>
@@ -6057,7 +6091,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>501</v>
       </c>
@@ -6095,7 +6129,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>506</v>
       </c>
@@ -6133,7 +6167,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>511</v>
       </c>
@@ -6172,7 +6206,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>516</v>
       </c>
@@ -6211,7 +6245,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>521</v>
       </c>
@@ -6250,7 +6284,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>526</v>
       </c>
@@ -6289,7 +6323,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>531</v>
       </c>
@@ -6328,7 +6362,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>536</v>
       </c>
@@ -6367,7 +6401,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>541</v>
       </c>
@@ -6406,7 +6440,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>546</v>
       </c>
@@ -6445,39 +6479,80 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>552</v>
       </c>
-      <c r="B135">
-        <f>AVERAGE(B28:B132)</f>
-        <v>3.7157142857142853</v>
-      </c>
-      <c r="C135">
-        <f>AVERAGE(C28:C132)</f>
-        <v>3.4757142857142855</v>
-      </c>
-      <c r="D135">
-        <f>AVERAGE(D28:D132)</f>
-        <v>3.4638095238095241</v>
-      </c>
-    </row>
+      <c r="B133">
+        <v>4.5</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>3.75</v>
+      </c>
+      <c r="E133" t="s">
+        <v>553</v>
+      </c>
+      <c r="F133" t="s">
+        <v>554</v>
+      </c>
+      <c r="H133">
+        <v>118</v>
+      </c>
+      <c r="J133" t="s">
+        <v>555</v>
+      </c>
+      <c r="L133" t="s">
+        <v>556</v>
+      </c>
+      <c r="M133" t="s">
+        <v>557</v>
+      </c>
+      <c r="N133">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>558</v>
+      </c>
+      <c r="B134">
+        <v>4.25</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>559</v>
+      </c>
+      <c r="F134" t="s">
+        <v>560</v>
+      </c>
+      <c r="G134"/>
+      <c r="H134">
+        <v>119</v>
+      </c>
+      <c r="I134"/>
+      <c r="J134" t="s">
+        <v>561</v>
+      </c>
+      <c r="K134"/>
+      <c r="L134" t="s">
+        <v>562</v>
+      </c>
+      <c r="M134" t="s">
+        <v>563</v>
+      </c>
+      <c r="N134">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ff_pub.xlsx
+++ b/ff_pub.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6e1db52c29e3048/Programming/R/FF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{F6430F50-1F39-4228-9846-DA6B8C116F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D9FD66C-CA32-4DCE-AA59-F4D0C1F57B4F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D8E0FC-E1A6-44C0-BD82-F6BAD5379521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
+    <workbookView xWindow="13050" yWindow="855" windowWidth="12945" windowHeight="11535" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ff_pub" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="576">
   <si>
     <t>Saving Private Ryan (1998)</t>
   </si>
@@ -1749,6 +1749,42 @@
   </si>
   <si>
     <t>https://www.imdb.com/title/tt0265086/?ref_=fn_al_tt_1</t>
+  </si>
+  <si>
+    <t>Cross of Iron (1977)</t>
+  </si>
+  <si>
+    <t>Crosses of Irons</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/FriendlyFirePodcast/comments/g75kk9/ep_120_cross_of_iron_1977/</t>
+  </si>
+  <si>
+    <t>https://www.justwatch.com/us/movie/cross-of-iron</t>
+  </si>
+  <si>
+    <t>It is 1943, and the German army—ravaged and demoralised—is hastily retreating from the Russian front. In the midst of the madness, conflict brews between the aristocratic yet ultimately pusillanimous Captain Stransky and the courageous Corporal Steiner. Stransky is the only man who believes that the Third Reich is still vastly superior to the Russian army. However, within his pompous persona lies a quivering coward who longs for the Iron Cross so that he can return to Berlin a hero. Steiner, on the other hand is cynical, defiantly non-conformist and more concerned with the safety of his own men rather than the horde of military decorations offered to him by his superiors.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0074695/</t>
+  </si>
+  <si>
+    <t>Good Morning, Vietnam (1987)</t>
+  </si>
+  <si>
+    <t>Green suits</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/FriendlyFirePodcast/comments/gbf0bp/ep_121_good_morning_vietnam_1987/</t>
+  </si>
+  <si>
+    <t>https://www.justwatch.com/us/movie/good-morning-vietnam</t>
+  </si>
+  <si>
+    <t>In 1965, an unorthodox and irreverent DJ named Adrian Cronauer begins to shake up things when he is assigned to the U.S. Armed Services radio station in Vietnam.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0093105/</t>
   </si>
 </sst>
 </file>
@@ -2111,10 +2147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329281F0-8AC7-414B-A8FA-FE10E41254C5}">
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J136" sqref="J136"/>
+      <selection activeCell="A135" sqref="A135:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6552,7 +6588,76 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>564</v>
+      </c>
+      <c r="B135">
+        <v>4.5</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>4.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>565</v>
+      </c>
+      <c r="F135" t="s">
+        <v>566</v>
+      </c>
+      <c r="H135">
+        <v>120</v>
+      </c>
+      <c r="J135" t="s">
+        <v>567</v>
+      </c>
+      <c r="L135" t="s">
+        <v>568</v>
+      </c>
+      <c r="M135" t="s">
+        <v>569</v>
+      </c>
+      <c r="N135">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>570</v>
+      </c>
+      <c r="B136">
+        <v>4.5</v>
+      </c>
+      <c r="C136">
+        <v>3.5</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>571</v>
+      </c>
+      <c r="F136" t="s">
+        <v>572</v>
+      </c>
+      <c r="H136">
+        <v>121</v>
+      </c>
+      <c r="J136" t="s">
+        <v>573</v>
+      </c>
+      <c r="L136" t="s">
+        <v>574</v>
+      </c>
+      <c r="M136" t="s">
+        <v>575</v>
+      </c>
+      <c r="N136">
+        <v>1987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ff_pub.xlsx
+++ b/ff_pub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6e1db52c29e3048/Programming/R/FF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imarr\Box\Programming\R\FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D8E0FC-E1A6-44C0-BD82-F6BAD5379521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D671C4-9A03-4ECB-94D7-5952B6E9E8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13050" yWindow="855" windowWidth="12945" windowHeight="11535" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
+    <workbookView xWindow="4356" yWindow="1260" windowWidth="17280" windowHeight="8964" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
   </bookViews>
   <sheets>
     <sheet name="ff_pub" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="582">
   <si>
     <t>Saving Private Ryan (1998)</t>
   </si>
@@ -1785,6 +1785,24 @@
   </si>
   <si>
     <t>https://www.imdb.com/title/tt0093105/</t>
+  </si>
+  <si>
+    <t>The Steel Helmet (1951)</t>
+  </si>
+  <si>
+    <t>Handfuls of dirt</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/FriendlyFirePodcast/comments/gfr8id/ep_122_the_steel_helmet_1951/</t>
+  </si>
+  <si>
+    <t>https://www.justwatch.com/us/movie/the-steel-helmet</t>
+  </si>
+  <si>
+    <t>A ragtag group of American stragglers battles against superior Communist troops in an abandoned Buddhist temple during the Korean War.</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0044072/?ref_=nv_sr_srsg_0</t>
   </si>
 </sst>
 </file>
@@ -2147,18 +2165,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329281F0-8AC7-414B-A8FA-FE10E41254C5}">
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:XFD136"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:XFD137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2224,7 +2242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2235,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2246,7 +2264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2257,7 +2275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2268,7 +2286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2279,7 +2297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2290,7 +2308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2323,7 +2341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2334,7 +2352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2345,7 +2363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2368,7 +2386,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2404,7 +2422,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2440,7 +2458,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2461,7 +2479,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2478,7 +2496,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2502,7 +2520,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2520,7 +2538,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2556,7 +2574,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2574,7 +2592,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2598,7 +2616,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="330" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="288" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2675,7 +2693,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2714,7 +2732,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2753,7 +2771,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -2831,7 +2849,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2870,7 +2888,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -2909,7 +2927,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -2948,7 +2966,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2987,7 +3005,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3026,7 +3044,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -3059,7 +3077,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -3098,7 +3116,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -3137,7 +3155,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -3176,7 +3194,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -3254,7 +3272,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -3293,7 +3311,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -3332,7 +3350,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -3371,7 +3389,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -3407,7 +3425,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -3443,7 +3461,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -3482,7 +3500,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -3560,7 +3578,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>192</v>
       </c>
@@ -3638,7 +3656,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>197</v>
       </c>
@@ -3676,7 +3694,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -3712,7 +3730,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -3748,7 +3766,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3787,7 +3805,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>216</v>
       </c>
@@ -3826,7 +3844,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -3865,7 +3883,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -3904,7 +3922,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>231</v>
       </c>
@@ -3943,7 +3961,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>236</v>
       </c>
@@ -3982,7 +4000,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>241</v>
       </c>
@@ -4021,7 +4039,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -4060,7 +4078,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>251</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>260</v>
       </c>
@@ -4177,7 +4195,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>265</v>
       </c>
@@ -4216,7 +4234,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>270</v>
       </c>
@@ -4249,7 +4267,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>274</v>
       </c>
@@ -4288,7 +4306,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>279</v>
       </c>
@@ -4327,7 +4345,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>284</v>
       </c>
@@ -4366,7 +4384,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>289</v>
       </c>
@@ -4405,7 +4423,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -4444,7 +4462,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -4483,7 +4501,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>304</v>
       </c>
@@ -4522,7 +4540,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>309</v>
       </c>
@@ -4561,7 +4579,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>315</v>
       </c>
@@ -4600,7 +4618,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>320</v>
       </c>
@@ -4633,7 +4651,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>324</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>328</v>
       </c>
@@ -4705,7 +4723,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>333</v>
       </c>
@@ -4744,7 +4762,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -4780,7 +4798,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>342</v>
       </c>
@@ -4816,7 +4834,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>346</v>
       </c>
@@ -4852,7 +4870,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>350</v>
       </c>
@@ -4888,7 +4906,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>354</v>
       </c>
@@ -4923,7 +4941,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>358</v>
       </c>
@@ -4950,7 +4968,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>360</v>
       </c>
@@ -4986,7 +5004,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>364</v>
       </c>
@@ -5025,7 +5043,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>369</v>
       </c>
@@ -5064,7 +5082,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>374</v>
       </c>
@@ -5094,7 +5112,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>377</v>
       </c>
@@ -5133,7 +5151,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>382</v>
       </c>
@@ -5163,7 +5181,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>385</v>
       </c>
@@ -5193,7 +5211,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>388</v>
       </c>
@@ -5232,7 +5250,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>393</v>
       </c>
@@ -5262,7 +5280,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>396</v>
       </c>
@@ -5301,7 +5319,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>401</v>
       </c>
@@ -5340,7 +5358,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -5379,7 +5397,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>411</v>
       </c>
@@ -5418,7 +5436,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -5457,7 +5475,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>421</v>
       </c>
@@ -5496,7 +5514,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>426</v>
       </c>
@@ -5535,7 +5553,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>431</v>
       </c>
@@ -5574,7 +5592,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>436</v>
       </c>
@@ -5613,7 +5631,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>441</v>
       </c>
@@ -5656,7 +5674,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>447</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>450</v>
       </c>
@@ -5716,7 +5734,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>453</v>
       </c>
@@ -5746,7 +5764,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>456</v>
       </c>
@@ -5776,7 +5794,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>459</v>
       </c>
@@ -5806,7 +5824,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>462</v>
       </c>
@@ -5845,7 +5863,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>467</v>
       </c>
@@ -5875,7 +5893,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>470</v>
       </c>
@@ -5905,7 +5923,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>473</v>
       </c>
@@ -5938,7 +5956,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>477</v>
       </c>
@@ -5980,7 +5998,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>483</v>
       </c>
@@ -6019,7 +6037,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>488</v>
       </c>
@@ -6049,7 +6067,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>491</v>
       </c>
@@ -6088,7 +6106,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>496</v>
       </c>
@@ -6127,7 +6145,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>501</v>
       </c>
@@ -6165,7 +6183,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>506</v>
       </c>
@@ -6203,7 +6221,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>511</v>
       </c>
@@ -6242,7 +6260,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>516</v>
       </c>
@@ -6281,7 +6299,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>521</v>
       </c>
@@ -6320,7 +6338,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>526</v>
       </c>
@@ -6359,7 +6377,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>531</v>
       </c>
@@ -6398,7 +6416,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>536</v>
       </c>
@@ -6437,7 +6455,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>541</v>
       </c>
@@ -6476,7 +6494,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>546</v>
       </c>
@@ -6515,7 +6533,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>552</v>
       </c>
@@ -6550,7 +6568,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>558</v>
       </c>
@@ -6588,7 +6606,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>564</v>
       </c>
@@ -6623,7 +6641,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>570</v>
       </c>
@@ -6656,6 +6674,41 @@
       </c>
       <c r="N136">
         <v>1987</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>576</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>3.75</v>
+      </c>
+      <c r="E137" t="s">
+        <v>577</v>
+      </c>
+      <c r="F137" t="s">
+        <v>578</v>
+      </c>
+      <c r="H137">
+        <v>122</v>
+      </c>
+      <c r="J137" t="s">
+        <v>579</v>
+      </c>
+      <c r="L137" t="s">
+        <v>580</v>
+      </c>
+      <c r="M137" t="s">
+        <v>581</v>
+      </c>
+      <c r="N137">
+        <v>1951</v>
       </c>
     </row>
   </sheetData>

--- a/ff_pub.xlsx
+++ b/ff_pub.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imarr\Box\Programming\R\FF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Box\Programming\R\FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D671C4-9A03-4ECB-94D7-5952B6E9E8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69C1C96-2321-4C0F-A9BC-16FB7517533C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="1260" windowWidth="17280" windowHeight="8964" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
+    <workbookView xWindow="1665" yWindow="1110" windowWidth="12945" windowHeight="11535" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
   </bookViews>
   <sheets>
     <sheet name="ff_pub" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="588">
   <si>
     <t>Saving Private Ryan (1998)</t>
   </si>
@@ -1803,16 +1803,42 @@
   </si>
   <si>
     <t>https://www.imdb.com/title/tt0044072/?ref_=nv_sr_srsg_0</t>
+  </si>
+  <si>
+    <t>Fixed Bayonets! (1951)</t>
+  </si>
+  <si>
+    <t>Bugels</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/FriendlyFirePodcast/comments/gk6g31/ep_123_fixed_bayonets_1951/</t>
+  </si>
+  <si>
+    <t>https://www.justwatch.com/us/movie/fixed-bayonets</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0043540/?ref_=fn_al_tt_1</t>
+  </si>
+  <si>
+    <t>The story of a platoon during the Korean War. One by one Corporal Denno's superiors are killed until it comes to the point where he must try to take command responsibility.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1841,18 +1867,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2165,18 +2194,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329281F0-8AC7-414B-A8FA-FE10E41254C5}">
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:XFD137"/>
+    <sheetView tabSelected="1" topLeftCell="C124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:XFD138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -2220,7 +2249,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2231,7 +2260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2242,7 +2271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2253,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2264,7 +2293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2275,7 +2304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2286,7 +2315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2297,7 +2326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2308,7 +2337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2319,7 +2348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2330,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2341,7 +2370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2352,7 +2381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2363,7 +2392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2386,7 +2415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2433,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2451,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2469,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2458,7 +2487,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2479,7 +2508,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2496,7 +2525,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2520,7 +2549,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2538,7 +2567,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2556,7 +2585,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2574,7 +2603,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2592,7 +2621,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2616,7 +2645,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="288" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2655,7 +2684,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2693,7 +2722,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2732,7 +2761,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2771,7 +2800,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2810,7 +2839,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -2849,7 +2878,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2888,7 +2917,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -2927,7 +2956,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -2966,7 +2995,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -3005,7 +3034,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3044,7 +3073,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -3077,7 +3106,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -3116,7 +3145,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -3155,7 +3184,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -3194,7 +3223,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -3233,7 +3262,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -3272,7 +3301,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -3311,7 +3340,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -3350,7 +3379,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -3389,7 +3418,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -3425,7 +3454,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -3461,7 +3490,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -3500,7 +3529,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -3539,7 +3568,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -3578,7 +3607,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -3617,7 +3646,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>192</v>
       </c>
@@ -3656,7 +3685,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>197</v>
       </c>
@@ -3694,7 +3723,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -3730,7 +3759,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>207</v>
       </c>
@@ -3766,7 +3795,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -3805,7 +3834,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>216</v>
       </c>
@@ -3844,7 +3873,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -3883,7 +3912,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -3922,7 +3951,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>231</v>
       </c>
@@ -3961,7 +3990,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>236</v>
       </c>
@@ -4000,7 +4029,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>241</v>
       </c>
@@ -4039,7 +4068,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -4078,7 +4107,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>251</v>
       </c>
@@ -4117,7 +4146,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -4156,7 +4185,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>260</v>
       </c>
@@ -4195,7 +4224,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>265</v>
       </c>
@@ -4234,7 +4263,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>270</v>
       </c>
@@ -4267,7 +4296,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>274</v>
       </c>
@@ -4306,7 +4335,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>279</v>
       </c>
@@ -4345,7 +4374,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>284</v>
       </c>
@@ -4384,7 +4413,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>289</v>
       </c>
@@ -4423,7 +4452,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -4462,7 +4491,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -4501,7 +4530,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>304</v>
       </c>
@@ -4540,7 +4569,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>309</v>
       </c>
@@ -4579,7 +4608,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>315</v>
       </c>
@@ -4618,7 +4647,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>320</v>
       </c>
@@ -4651,7 +4680,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>324</v>
       </c>
@@ -4684,7 +4713,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>328</v>
       </c>
@@ -4723,7 +4752,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>333</v>
       </c>
@@ -4762,7 +4791,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>338</v>
       </c>
@@ -4798,7 +4827,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>342</v>
       </c>
@@ -4834,7 +4863,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>346</v>
       </c>
@@ -4870,7 +4899,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>350</v>
       </c>
@@ -4906,7 +4935,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
@@ -4941,7 +4970,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>358</v>
       </c>
@@ -4968,7 +4997,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>360</v>
       </c>
@@ -5004,7 +5033,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>364</v>
       </c>
@@ -5043,7 +5072,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>369</v>
       </c>
@@ -5082,7 +5111,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>374</v>
       </c>
@@ -5112,7 +5141,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>377</v>
       </c>
@@ -5151,7 +5180,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>382</v>
       </c>
@@ -5181,7 +5210,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>385</v>
       </c>
@@ -5211,7 +5240,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>388</v>
       </c>
@@ -5250,7 +5279,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>393</v>
       </c>
@@ -5280,7 +5309,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>396</v>
       </c>
@@ -5319,7 +5348,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>401</v>
       </c>
@@ -5358,7 +5387,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -5397,7 +5426,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>411</v>
       </c>
@@ -5436,7 +5465,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -5475,7 +5504,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>421</v>
       </c>
@@ -5514,7 +5543,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>426</v>
       </c>
@@ -5553,7 +5582,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>431</v>
       </c>
@@ -5592,7 +5621,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>436</v>
       </c>
@@ -5631,7 +5660,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>441</v>
       </c>
@@ -5674,7 +5703,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>447</v>
       </c>
@@ -5704,7 +5733,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>450</v>
       </c>
@@ -5734,7 +5763,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>453</v>
       </c>
@@ -5764,7 +5793,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>456</v>
       </c>
@@ -5794,7 +5823,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>459</v>
       </c>
@@ -5824,7 +5853,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>462</v>
       </c>
@@ -5863,7 +5892,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>467</v>
       </c>
@@ -5893,7 +5922,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>470</v>
       </c>
@@ -5923,7 +5952,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>473</v>
       </c>
@@ -5956,7 +5985,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>477</v>
       </c>
@@ -5998,7 +6027,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>483</v>
       </c>
@@ -6037,7 +6066,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>488</v>
       </c>
@@ -6067,7 +6096,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>491</v>
       </c>
@@ -6106,7 +6135,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>496</v>
       </c>
@@ -6145,7 +6174,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>501</v>
       </c>
@@ -6183,7 +6212,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>506</v>
       </c>
@@ -6221,7 +6250,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>511</v>
       </c>
@@ -6260,7 +6289,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>516</v>
       </c>
@@ -6299,7 +6328,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>521</v>
       </c>
@@ -6338,7 +6367,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>526</v>
       </c>
@@ -6377,7 +6406,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>531</v>
       </c>
@@ -6416,7 +6445,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>536</v>
       </c>
@@ -6455,7 +6484,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>541</v>
       </c>
@@ -6494,7 +6523,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>546</v>
       </c>
@@ -6533,7 +6562,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>552</v>
       </c>
@@ -6568,7 +6597,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>558</v>
       </c>
@@ -6606,7 +6635,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>564</v>
       </c>
@@ -6641,7 +6670,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>570</v>
       </c>
@@ -6676,7 +6705,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>576</v>
       </c>
@@ -6698,7 +6727,7 @@
       <c r="H137">
         <v>122</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" s="4" t="s">
         <v>579</v>
       </c>
       <c r="L137" t="s">
@@ -6711,7 +6740,48 @@
         <v>1951</v>
       </c>
     </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>582</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>3.5</v>
+      </c>
+      <c r="D138">
+        <v>3.5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>583</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="H138">
+        <v>123</v>
+      </c>
+      <c r="I138">
+        <v>1951</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="K138" t="s">
+        <v>586</v>
+      </c>
+      <c r="L138" t="s">
+        <v>587</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J137" r:id="rId1" xr:uid="{1AFB58C9-CC5F-4721-AD04-677441885641}"/>
+    <hyperlink ref="F138" r:id="rId2" xr:uid="{92025721-595A-4279-A941-295C1362A1EC}"/>
+    <hyperlink ref="J138" r:id="rId3" xr:uid="{7CB35703-3885-472A-B534-594585126388}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
--- a/ff_pub.xlsx
+++ b/ff_pub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Box\Programming\R\FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69C1C96-2321-4C0F-A9BC-16FB7517533C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8325208F-7EF8-48CF-8982-565F39B527E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="1110" windowWidth="12945" windowHeight="11535" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="25350" windowHeight="13605" xr2:uid="{BD39A44A-CFF8-4B15-A0E7-DF12001DF192}"/>
   </bookViews>
   <sheets>
     <sheet name="ff_pub" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="594">
   <si>
     <t>Saving Private Ryan (1998)</t>
   </si>
@@ -1821,6 +1821,24 @@
   </si>
   <si>
     <t>The story of a platoon during the Korean War. One by one Corporal Denno's superiors are killed until it comes to the point where he must try to take command responsibility.</t>
+  </si>
+  <si>
+    <t>The Night of the Generals (1967)</t>
+  </si>
+  <si>
+    <t>Red stripes</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/FriendlyFirePodcast/comments/goh5wd/ep_124_the_night_of_the_generals_1967/</t>
+  </si>
+  <si>
+    <t>https://www.justwatch.com/us/movie/the-night-of-the-generals</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0062038/?ref_=fn_al_tt_1</t>
+  </si>
+  <si>
+    <t>In 1942, a Polish prostitute and German Agent is murdered in Warsaw. Suspicion falls on three Generals, and Major Grau (Omar Sharif) of German Intelligence seeks justice which ends up taking decades.</t>
   </si>
 </sst>
 </file>
@@ -2194,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329281F0-8AC7-414B-A8FA-FE10E41254C5}">
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:XFD138"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139:XFD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6775,13 +6793,49 @@
         <v>587</v>
       </c>
     </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>588</v>
+      </c>
+      <c r="B139">
+        <v>4.25</v>
+      </c>
+      <c r="C139">
+        <v>4.5</v>
+      </c>
+      <c r="D139">
+        <v>3.75</v>
+      </c>
+      <c r="E139" t="s">
+        <v>589</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="H139">
+        <v>124</v>
+      </c>
+      <c r="I139">
+        <v>1967</v>
+      </c>
+      <c r="J139" t="s">
+        <v>591</v>
+      </c>
+      <c r="K139" t="s">
+        <v>592</v>
+      </c>
+      <c r="L139" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J137" r:id="rId1" xr:uid="{1AFB58C9-CC5F-4721-AD04-677441885641}"/>
     <hyperlink ref="F138" r:id="rId2" xr:uid="{92025721-595A-4279-A941-295C1362A1EC}"/>
     <hyperlink ref="J138" r:id="rId3" xr:uid="{7CB35703-3885-472A-B534-594585126388}"/>
+    <hyperlink ref="F139" r:id="rId4" xr:uid="{6A9035EA-18AA-49F0-B130-8509E57B32CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>